--- a/etc/ap242/patches.xlsx
+++ b/etc/ap242/patches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="40" windowWidth="26180" windowHeight="16860" tabRatio="500"/>
+    <workbookView xWindow="1520" yWindow="40" windowWidth="26180" windowHeight="16860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,33 @@
     <author>Kevin Le Tutour</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kevin Le Tutour:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Valid means the patch is valid and shall be applied as there is a real shotlo issue.
+Fixed-closed means no patch are needed as the error is not an SHTOLO error but a short form schema error which has been fixed.
+not_valid-pending means that the patch seems invalid but we need feedbacks from the persons which has create the issue in order to be sure.
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E2" authorId="0">
       <text>
         <r>
@@ -73,20 +100,67 @@
         </r>
       </text>
     </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kevin Le Tutour:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This number is the last committed schema version on which the patch has been applied. 
+When equal to "x", it means the patch doesn't need to be applied to this specific schema (442 and/or 409 and/or 410 and/or ARM and/or MIM).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kevin Le Tutour:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This number is the last committed schema version on which the patch has been applied. 
+When equal to "x", it means the patch doesn't need to be applied to this specific schema (442 and/or 409 and/or 410 and/or ARM and/or MIM).</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="49">
   <si>
     <t>bug #</t>
   </si>
   <si>
     <t>bug title</t>
-  </si>
-  <si>
-    <t>to do</t>
   </si>
   <si>
     <t>442 ARM lf</t>
@@ -125,9 +199,6 @@
     <t>Bug 5589 - Patch 409, 410, 442 ARM Long forms for several DOMAIN RULEs that use extended enumerations items due to shtolo error</t>
   </si>
   <si>
-    <t>1.36</t>
-  </si>
-  <si>
     <t>Bug 4662 - patch incorrect RULE total_over_assembly_component_relationship_constraint created by shtolo</t>
   </si>
   <si>
@@ -135,9 +206,6 @@
   </si>
   <si>
     <t>communicated in bugzilla</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>&gt; Comment out 2 lines :
@@ -179,16 +247,10 @@
     <t>valid</t>
   </si>
   <si>
-    <t>1.44</t>
-  </si>
-  <si>
     <t>fixed-closed</t>
   </si>
   <si>
     <t>not_valid-pending</t>
-  </si>
-  <si>
-    <t>todo</t>
   </si>
   <si>
     <t>waiting for feedback - first entity covered by 4820 and issue invalidated</t>
@@ -217,9 +279,6 @@
 &gt;&gt;&gt; FIXED ??? same as above</t>
   </si>
   <si>
-    <t>PATCH FUNCTION make_array_of_array(</t>
-  </si>
-  <si>
     <t>CUR - feature_or_non_feature_usage falls empty in AP242 long from Express</t>
   </si>
   <si>
@@ -227,18 +286,6 @@
   </si>
   <si>
     <t>Bug 4904 - patch 409 ARM longform errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NB: concerns only characterized_resource_select used by Ressource_property
-commented out: described_element
-ENTITY Resource_property;
-  name : STRING;
-  description : STRING;
-  -- described_element : characterized_resource_select;
-</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>Bug 4619 - Patch 409 MIM longform to comment out select state_type_of_item</t>
@@ -282,47 +329,33 @@
   END_TYPE;</t>
   </si>
   <si>
-    <t>THIS IS AN EXTENSION ??
-Done in P409 mim_lf.exp as proposed with this result:
-  FUNCTION is_coordinate_property(
-               arg : specified_general_property
-           ) : BOOLEAN;
-(* this line 
-    IF
-'AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.EXTERNALLY_DEFINED_ITEM' IN
-TYPEOF( arg ) THEN
-   is replaced by the following two lines as patch for BZ#5019 *)
-    IF
-('AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.EXTERNALLY_DEFINED_ITEM'
-IN
-        TYPEOF(arg\specified_general_property.name_specifier) ) THEN  
-      RETURN( TRUE );
-    END_IF;
-(* this line 
-    RETURN(
-'AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.COORDINATE_DATA_NAME' IN
-TYPEOF( arg ) );
-   is replaced by the following section as patch for BZ#5019 and BZ#5054
-    RETURN
-('AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.COORDINATE_DATA_NAME' IN
-    TYPEOF(arg\specified_general_property.name_specifier)); *)
-    IF (arg\specified_general_property.name_specifier =
-PROPERTY_3D_DATA_NAME.POSITION)
-        OR
-('AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.COORDINATE_DATA_NAME' IN
-        TYPEOF(arg\specified_general_property.name_specifier)) THEN 
-       RETURN ( TRUE );
-    ELSE
-       RETURN( FALSE );
-    END_IF;
-  END_FUNCTION;</t>
-  </si>
-  <si>
     <t>patch id</t>
   </si>
   <si>
-    <t>(new edition of AIC 515 in preparation by Ray)
-add:
+    <t>comments</t>
+  </si>
+  <si>
+    <t>THIS IS AN EXTENSION ??</t>
+  </si>
+  <si>
+    <t>(new edition of AIC 515 in preparation by Ray)</t>
+  </si>
+  <si>
+    <t>related correction to do</t>
+  </si>
+  <si>
+    <t>commented out: described_element
+ENTITY Resource_property;
+  name : STRING;
+  description : STRING;
+  -- described_element : characterized_resource_select;
+NB: concerns only characterized_resource_select used by Ressource_property</t>
+  </si>
+  <si>
+    <t>x???</t>
+  </si>
+  <si>
+    <t>add:
 TYPE csg_primitive = SELECT (
    block,
    bounded_primitive_2d,
@@ -461,7 +494,51 @@
    END_REPEAT;
    RETURN(TRUE);
 END_FUNCTION; 
-(* End of added FUNCTIONs. JH 2015-09-04 *)</t>
+(* End of added FUNCTIONs.klt 2015-09-28 *)</t>
+  </si>
+  <si>
+    <t>NO APPEAR : defined_data_name = SELECT</t>
+  </si>
+  <si>
+    <t>TYPE requirement_basis_select does appear in 410 lf - not needed for this one</t>
+  </si>
+  <si>
+    <t>Done in P409 mim_lf.exp as proposed with this result:
+  FUNCTION is_coordinate_property(
+               arg : specified_general_property
+           ) : BOOLEAN;
+(* this line 
+    IF
+'AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.EXTERNALLY_DEFINED_ITEM' IN
+TYPEOF( arg ) THEN
+   is replaced by the following two lines as patch for BZ#5019 *)
+    IF
+('AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.EXTERNALLY_DEFINED_ITEM'
+IN
+        TYPEOF(arg\specified_general_property.name_specifier) ) THEN  
+      RETURN( TRUE );
+    END_IF;
+(* this line 
+    RETURN(
+'AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.COORDINATE_DATA_NAME' IN
+TYPEOF( arg ) );
+   is replaced by the following section as patch for BZ#5019 and BZ#5054
+    RETURN
+('AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.COORDINATE_DATA_NAME' IN
+    TYPEOF(arg\specified_general_property.name_specifier)); *)
+    IF (arg\specified_general_property.name_specifier =
+PROPERTY_3D_DATA_NAME.POSITION)
+        OR
+('AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.COORDINATE_DATA_NAME' IN
+        TYPEOF(arg\specified_general_property.name_specifier)) THEN 
+       RETURN ( TRUE );
+    ELSE
+       RETURN( FALSE );
+    END_IF;
+  END_FUNCTION;</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -536,7 +613,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -676,8 +753,122 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -708,8 +899,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="253">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -779,6 +979,63 @@
     <cellStyle name="Lien hypertexte" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -848,9 +1105,84 @@
     <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1104,21 +1436,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L39" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L39"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="patch id" dataDxfId="11"/>
-    <tableColumn id="2" name="bug #" dataDxfId="10"/>
-    <tableColumn id="3" name="bug title" dataDxfId="9"/>
-    <tableColumn id="12" name="status" dataDxfId="8"/>
-    <tableColumn id="4" name="442 ARM lf" dataDxfId="7"/>
-    <tableColumn id="5" name="442 MIM lf" dataDxfId="6"/>
-    <tableColumn id="6" name="410 ARM lf" dataDxfId="5"/>
-    <tableColumn id="7" name="410 MIM lf" dataDxfId="4"/>
-    <tableColumn id="8" name="409 ARM lf" dataDxfId="3"/>
-    <tableColumn id="9" name="409 MIM lf" dataDxfId="2"/>
-    <tableColumn id="10" name="to do" dataDxfId="1"/>
-    <tableColumn id="11" name="communicated in bugzilla" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M39"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="patch id" dataDxfId="12"/>
+    <tableColumn id="2" name="bug #" dataDxfId="11"/>
+    <tableColumn id="3" name="bug title" dataDxfId="10"/>
+    <tableColumn id="12" name="status" dataDxfId="9"/>
+    <tableColumn id="4" name="442 ARM lf" dataDxfId="8"/>
+    <tableColumn id="5" name="442 MIM lf" dataDxfId="7"/>
+    <tableColumn id="6" name="410 ARM lf" dataDxfId="6"/>
+    <tableColumn id="7" name="410 MIM lf" dataDxfId="5"/>
+    <tableColumn id="8" name="409 ARM lf" dataDxfId="4"/>
+    <tableColumn id="9" name="409 MIM lf" dataDxfId="3"/>
+    <tableColumn id="10" name="related correction to do" dataDxfId="2"/>
+    <tableColumn id="11" name="communicated in bugzilla" dataDxfId="1"/>
+    <tableColumn id="13" name="comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1446,11 +1779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1461,13 +1794,15 @@
     <col min="4" max="4" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="5" customWidth="1"/>
     <col min="6" max="10" width="13.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="101.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="69.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="67.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="16" customHeight="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1476,34 +1811,37 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1511,37 +1849,38 @@
         <v>4662</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.38</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1.64</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1.31</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1549,37 +1888,38 @@
         <v>5589</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.38</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.64</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.31</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="16" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1587,37 +1927,40 @@
         <v>5633</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.38</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1625,37 +1968,38 @@
         <v>4665</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.45</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.66</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="J5" s="14">
+        <v>1.5</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1663,37 +2007,36 @@
         <v>5056</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.45</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.66</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="J6" s="14">
+        <v>1.5</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1701,35 +2044,34 @@
         <v>4619</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16" customHeight="1">
+      <c r="L7" s="6"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1738,32 +2080,31 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K8" s="11"/>
-      <c r="L8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16" customHeight="1">
+      <c r="L8" s="6"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1772,32 +2113,31 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K9" s="11"/>
-      <c r="L9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16" customHeight="1">
+      <c r="L9" s="6"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1806,24 +2146,23 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17" customHeight="1">
+      <c r="L10" s="6"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1831,37 +2170,38 @@
         <v>4904</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.31</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1870,28 +2210,26 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1899,37 +2237,35 @@
         <v>4988</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" customHeight="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1938,30 +2274,28 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16" customHeight="1">
+      <c r="L14" s="6"/>
+      <c r="M14" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1970,30 +2304,29 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K15" s="11"/>
-      <c r="L15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16" customHeight="1">
+      <c r="L15" s="6"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" customHeight="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2002,34 +2335,32 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16" customHeight="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2038,32 +2369,31 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K17" s="11"/>
-      <c r="L17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="16" customHeight="1">
+      <c r="L17" s="6"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="16" customHeight="1">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2072,34 +2402,32 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16" customHeight="1">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2108,34 +2436,32 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16" customHeight="1">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2144,34 +2470,35 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="J20" s="14">
+        <v>1.5</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="16" customHeight="1">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2180,34 +2507,37 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1.5</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16" customHeight="1">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2216,32 +2546,31 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K22" s="11"/>
-      <c r="L22" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16" customHeight="1">
+      <c r="L22" s="6"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" ht="16" customHeight="1">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2250,34 +2579,33 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" ht="16" customHeight="1">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2286,34 +2614,37 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1.5</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" customHeight="1">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2322,34 +2653,37 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1.45</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.66</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1.5</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16" customHeight="1">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2358,34 +2692,31 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="16" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" ht="16" customHeight="1">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2394,32 +2725,31 @@
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K27" s="11"/>
-      <c r="L27" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16" customHeight="1">
+      <c r="L27" s="6"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" ht="16" customHeight="1">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2427,35 +2757,34 @@
         <v>5587</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K28" s="11"/>
-      <c r="L28" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16" customHeight="1">
+      <c r="L28" s="6"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="16" customHeight="1">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2463,35 +2792,34 @@
         <v>5588</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K29" s="11"/>
-      <c r="L29" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="16" customHeight="1">
+      <c r="L29" s="6"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" ht="16" customHeight="1">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2504,11 +2832,10 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="16" customHeight="1">
+      <c r="L30" s="6"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" ht="16" customHeight="1">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2521,11 +2848,10 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="16" customHeight="1">
+      <c r="L31" s="6"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" ht="16" customHeight="1">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2537,11 +2863,10 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="L32" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="16" customHeight="1">
+      <c r="L32" s="6"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="16" customHeight="1">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2553,11 +2878,10 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="L33" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="16" customHeight="1">
+      <c r="L33" s="6"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" ht="16" customHeight="1">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2569,11 +2893,10 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="L34" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="16" customHeight="1">
+      <c r="L34" s="6"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" ht="16" customHeight="1">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2585,11 +2908,10 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="L35" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="16" customHeight="1">
+      <c r="L35" s="6"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" ht="16" customHeight="1">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2601,11 +2923,10 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="L36" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="16" customHeight="1">
+      <c r="L36" s="6"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" ht="16" customHeight="1">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2617,11 +2938,10 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="L37" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="16" customHeight="1">
+      <c r="L37" s="6"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" ht="16" customHeight="1">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2633,11 +2953,10 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="L38" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="16" customHeight="1">
+      <c r="L38" s="6"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" ht="16" customHeight="1">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2649,9 +2968,8 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="L39" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/etc/ap242/patches.xlsx
+++ b/etc/ap242/patches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="40" windowWidth="26180" windowHeight="16860" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="60" windowWidth="27880" windowHeight="16860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -613,8 +613,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="253">
+  <cellStyleXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -909,7 +919,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="253">
+  <cellStyles count="263">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1036,6 +1046,11 @@
     <cellStyle name="Lien hypertexte" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1162,6 +1177,11 @@
     <cellStyle name="Lien hypertexte visité" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -1783,7 +1803,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/etc/ap242/patches.xlsx
+++ b/etc/ap242/patches.xlsx
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="50">
   <si>
     <t>bug #</t>
   </si>
@@ -350,9 +350,6 @@
   description : STRING;
   -- described_element : characterized_resource_select;
 NB: concerns only characterized_resource_select used by Ressource_property</t>
-  </si>
-  <si>
-    <t>x???</t>
   </si>
   <si>
     <t>add:
@@ -540,6 +537,12 @@
   <si>
     <t>yes</t>
   </si>
+  <si>
+    <t>Bug 5675 - Unknown type: MACHINING_FEATURE_DEFINITION</t>
+  </si>
+  <si>
+    <t>not a shtolo issue but too late to make a new version of AIC515 in CR11</t>
+  </si>
 </sst>
 </file>
 
@@ -613,8 +616,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="263">
+  <cellStyleXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -919,7 +928,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="263">
+  <cellStyles count="269">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1051,6 +1060,9 @@
     <cellStyle name="Lien hypertexte" xfId="257" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1182,6 +1194,9 @@
     <cellStyle name="Lien hypertexte visité" xfId="258" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -1803,7 +1818,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1896,7 +1911,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -1935,7 +1950,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M3" s="4"/>
     </row>
@@ -1959,7 +1974,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>23</v>
@@ -1974,10 +1989,10 @@
         <v>13</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" customHeight="1">
@@ -2015,7 +2030,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="4"/>
     </row>
@@ -2217,7 +2232,7 @@
         <v>42</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11" s="4"/>
     </row>
@@ -2514,7 +2529,7 @@
         <v>36</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M20" s="4"/>
     </row>
@@ -2551,10 +2566,10 @@
         <v>35</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" customHeight="1">
@@ -2655,10 +2670,10 @@
         <v>1.5</v>
       </c>
       <c r="K24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>39</v>
@@ -2694,10 +2709,10 @@
         <v>1.5</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>40</v>
@@ -2843,17 +2858,38 @@
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="B30" s="6">
+        <v>5675</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K30" s="11"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="4"/>
+      <c r="M30" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="16" customHeight="1">
       <c r="A31" s="6">

--- a/etc/ap242/patches.xlsx
+++ b/etc/ap242/patches.xlsx
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,62 +100,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Kevin Le Tutour:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This number is the last committed schema version on which the patch has been applied. 
-When equal to "x", it means the patch doesn't need to be applied to this specific schema (442 and/or 409 and/or 410 and/or ARM and/or MIM).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Kevin Le Tutour:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This number is the last committed schema version on which the patch has been applied. 
-When equal to "x", it means the patch doesn't need to be applied to this specific schema (442 and/or 409 and/or 410 and/or ARM and/or MIM).</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="50">
   <si>
     <t>bug #</t>
   </si>
@@ -257,13 +207,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>&gt; replace mb3dgdt_additional_application_domain_enumeration by additional_application_domain_enumeration
-&gt; replace pmiwn3m_product_shape_type_enumeration by product_shape_type_enumeration
-&gt; replace pamap_initial_application_domain_enumeration by initial_application_domain_enumeration
-&gt; replace pamap_additional_application_domain_enumeration by additional_application_domain_enumeration
-&gt; replace pvd_life_cycle_stage_enumeration by life_cycle_stage_enumeration</t>
   </si>
   <si>
     <t>seems corrected</t>
@@ -352,7 +295,61 @@
 NB: concerns only characterized_resource_select used by Ressource_property</t>
   </si>
   <si>
-    <t>add:
+    <t>NO APPEAR : defined_data_name = SELECT</t>
+  </si>
+  <si>
+    <t>TYPE requirement_basis_select does appear in 410 lf - not needed for this one</t>
+  </si>
+  <si>
+    <t>Bug 5675 - Unknown type: MACHINING_FEATURE_DEFINITION</t>
+  </si>
+  <si>
+    <t>not a shtolo issue but too late to make a new version of AIC515 in CR11</t>
+  </si>
+  <si>
+    <t>Replace:
+FUNCTION is_coordinate_property(
+...
+end_function
+by:
+FUNCTION is_coordinate_property(
+               arg : specified_general_property
+           ) : BOOLEAN;
+(* this line 
+    IF
+'AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.EXTERNALLY_DEFINED_ITEM' IN
+TYPEOF( arg ) THEN
+   is replaced by the following two lines as patch for BZ#5019 *)
+    IF ('AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.EXTERNALLY_DEFINED_ITEM' IN TYPEOF(arg\specified_general_property.name_specifier) ) THEN  
+      RETURN( TRUE );
+    END_IF;
+(* this line 
+    RETURN(
+'AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.COORDINATE_DATA_NAME' IN
+TYPEOF( arg ) );
+   is replaced by the following section as patch for BZ#5019 and BZ#5054
+    RETURN
+('AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.COORDINATE_DATA_NAME' IN
+    TYPEOF(arg\specified_general_property.name_specifier)); *)
+    IF (arg\specified_general_property.name_specifier = PROPERTY_3D_DATA_NAME.POSITION) OR ('AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.COORDINATE_DATA_NAME' IN TYPEOF(arg\specified_general_property.name_specifier)) THEN 
+       RETURN ( TRUE );
+    ELSE
+       RETURN( FALSE );
+    END_IF;
+END_FUNCTION;</t>
+  </si>
+  <si>
+    <t>Replace:
+TYPE csg_primitive = SELECT (
+   block,
+   bounded_primitive_2d,
+   right_angular_wedge,
+   right_circular_cone,
+   right_circular_cylinder,
+   sphere,
+   torus);
+END_TYPE;
+by:
 TYPE csg_primitive = SELECT (
    block,
    bounded_primitive_2d,
@@ -491,57 +488,20 @@
    END_REPEAT;
    RETURN(TRUE);
 END_FUNCTION; 
-(* End of added FUNCTIONs.klt 2015-09-28 *)</t>
-  </si>
-  <si>
-    <t>NO APPEAR : defined_data_name = SELECT</t>
-  </si>
-  <si>
-    <t>TYPE requirement_basis_select does appear in 410 lf - not needed for this one</t>
-  </si>
-  <si>
-    <t>Done in P409 mim_lf.exp as proposed with this result:
-  FUNCTION is_coordinate_property(
-               arg : specified_general_property
-           ) : BOOLEAN;
-(* this line 
-    IF
-'AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.EXTERNALLY_DEFINED_ITEM' IN
-TYPEOF( arg ) THEN
-   is replaced by the following two lines as patch for BZ#5019 *)
-    IF
-('AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.EXTERNALLY_DEFINED_ITEM'
-IN
-        TYPEOF(arg\specified_general_property.name_specifier) ) THEN  
-      RETURN( TRUE );
-    END_IF;
-(* this line 
-    RETURN(
-'AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.COORDINATE_DATA_NAME' IN
-TYPEOF( arg ) );
-   is replaced by the following section as patch for BZ#5019 and BZ#5054
-    RETURN
-('AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.COORDINATE_DATA_NAME' IN
-    TYPEOF(arg\specified_general_property.name_specifier)); *)
-    IF (arg\specified_general_property.name_specifier =
-PROPERTY_3D_DATA_NAME.POSITION)
-        OR
-('AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.COORDINATE_DATA_NAME' IN
-        TYPEOF(arg\specified_general_property.name_specifier)) THEN 
-       RETURN ( TRUE );
-    ELSE
-       RETURN( FALSE );
-    END_IF;
-  END_FUNCTION;</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Bug 5675 - Unknown type: MACHINING_FEATURE_DEFINITION</t>
-  </si>
-  <si>
-    <t>not a shtolo issue but too late to make a new version of AIC515 in CR11</t>
+(* End of added FUNCTIONs. klt 2015-09-30 *)</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>FOR THE 3 LFs:
+&gt; replace mb3dgdt_additional_application_domain_enumeration by additional_application_domain_enumeration
+&gt; replace pmiwn3m_product_shape_type_enumeration by product_shape_type_enumeration
+&gt; replace pamap_initial_application_domain_enumeration by initial_application_domain_enumeration
+&gt; replace pamap_additional_application_domain_enumeration by additional_application_domain_enumeration
+&gt; replace pvd_life_cycle_stage_enumeration by life_cycle_stage_enumeration
+ONLY FOR 410:
+&gt; replace ps_initial_application_domain_enumeration by initial_application_domain_enumeration</t>
   </si>
 </sst>
 </file>
@@ -616,8 +576,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="269">
+  <cellStyleXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -928,7 +920,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="269">
+  <cellStyles count="301">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1063,6 +1055,22 @@
     <cellStyle name="Lien hypertexte" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="299" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1197,6 +1205,22 @@
     <cellStyle name="Lien hypertexte visité" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="300" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -1818,7 +1842,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1837,7 +1861,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1867,13 +1891,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1">
@@ -1889,20 +1913,20 @@
       <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6">
-        <v>1.38</v>
+      <c r="E2" s="14">
+        <v>1.4</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="6">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="6">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>23</v>
@@ -1911,7 +1935,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -1928,29 +1952,29 @@
       <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6">
-        <v>1.38</v>
+      <c r="E3" s="14">
+        <v>1.4</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="6">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="6">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="4"/>
     </row>
@@ -1967,8 +1991,8 @@
       <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6">
-        <v>1.38</v>
+      <c r="E4" s="14">
+        <v>1.4</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>23</v>
@@ -1980,7 +2004,7 @@
         <v>23</v>
       </c>
       <c r="I4" s="6">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>23</v>
@@ -1989,10 +2013,10 @@
         <v>13</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" customHeight="1">
@@ -2012,25 +2036,25 @@
         <v>23</v>
       </c>
       <c r="F5" s="6">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="6">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="14">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" s="4"/>
     </row>
@@ -2051,19 +2075,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="6">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="6">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="14">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>16</v>
@@ -2079,7 +2103,7 @@
         <v>4619</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>20</v>
@@ -2189,10 +2213,18 @@
       <c r="F10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K10" s="11"/>
       <c r="L10" s="6"/>
       <c r="M10" s="4"/>
@@ -2205,7 +2237,7 @@
         <v>4904</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>19</v>
@@ -2223,16 +2255,16 @@
         <v>23</v>
       </c>
       <c r="I11" s="6">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11" s="4"/>
     </row>
@@ -2250,9 +2282,15 @@
       <c r="E12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>23</v>
       </c>
@@ -2272,7 +2310,7 @@
         <v>4988</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>20</v>
@@ -2297,7 +2335,7 @@
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" customHeight="1">
@@ -2327,7 +2365,7 @@
       <c r="J14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" customHeight="1">
@@ -2392,7 +2430,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" customHeight="1">
@@ -2459,7 +2497,7 @@
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" customHeight="1">
@@ -2493,7 +2531,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" customHeight="1">
@@ -2523,13 +2561,13 @@
         <v>23</v>
       </c>
       <c r="J20" s="14">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M20" s="4"/>
     </row>
@@ -2560,16 +2598,16 @@
         <v>23</v>
       </c>
       <c r="J21" s="14">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" customHeight="1">
@@ -2635,7 +2673,7 @@
         <v>23</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="4"/>
@@ -2667,16 +2705,16 @@
         <v>23</v>
       </c>
       <c r="J24" s="14">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>46</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" customHeight="1">
@@ -2694,7 +2732,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="6">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>23</v>
@@ -2706,16 +2744,16 @@
         <v>23</v>
       </c>
       <c r="J25" s="14">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" customHeight="1">
@@ -2792,7 +2830,7 @@
         <v>5587</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>20</v>
@@ -2827,7 +2865,7 @@
         <v>5588</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>20</v>
@@ -2862,7 +2900,7 @@
         <v>5675</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>21</v>
@@ -2888,7 +2926,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="6"/>
       <c r="M30" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" customHeight="1">

--- a/etc/ap242/patches.xlsx
+++ b/etc/ap242/patches.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="58">
   <si>
     <t>bug #</t>
   </si>
@@ -261,15 +261,6 @@
       velocity,
       vorticity );
   END_TYPE;  </t>
-  </si>
-  <si>
-    <t>Fixed as patch to 449ed2:
-  TYPE tuple_space = SELECT
-    ( product_space,
-(* next line added as patch for BZ#5023 *)
-      mesh_derived_maths_space,
-     extended_tuple_space );
-  END_TYPE;</t>
   </si>
   <si>
     <t>patch id</t>
@@ -503,12 +494,70 @@
 ONLY FOR 410:
 &gt; replace ps_initial_application_domain_enumeration by initial_application_domain_enumeration</t>
   </si>
+  <si>
+    <t>replace tuple space type by:
+  TYPE tuple_space = SELECT
+    ( product_space,
+(* next line added as patch for BZ#5023 *)
+      mesh_derived_maths_space,
+     extended_tuple_space );
+  END_TYPE;</t>
+  </si>
+  <si>
+    <t>Bug 4979 - patch 409 longform for explicit_unstructured_mesh.cells syntax error</t>
+  </si>
+  <si>
+    <t>Bug 4847 - manual editing of html needed</t>
+  </si>
+  <si>
+    <t>Bug 4992 - Patch 409, 410 mim longforms to add 209, 210 specific ap rule</t>
+  </si>
+  <si>
+    <t>Bug 4994 - patch 409 ARM longform to correct product_of_mesh.wr1</t>
+  </si>
+  <si>
+    <t>Bug 4978 - patch for associated_definition bug</t>
+  </si>
+  <si>
+    <t>Bug 5004 - patch 409, 410, 442 MIM longform missing MACHINING_FEATURE_DEFINITION TYPE</t>
+  </si>
+  <si>
+    <t>Bug 5672 - Running STEP Tools Express Checker on AP242ed2 AIM long form schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add this type from ed1 of 442 : 
+(* BZ#5004 *)
+TYPE machining_feature_definition = SELECT (
+  boss,
+  compound_feature,
+  externally_defined_feature_definition,
+  flat_face,
+  gear,
+  marking,
+  outer_round,
+  outside_profile,
+  pocket,
+  protrusion,
+  removal_volume,
+  replicate_feature,
+  revolved_profile,
+  rib_top,
+  round_hole,
+  rounded_end,
+  spherical_cap,
+  step,
+  slot,
+  thread,
+  turned_knurl);
+END_TYPE;
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -558,13 +607,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -576,7 +636,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="301">
+  <cellStyleXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -878,8 +938,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -919,8 +995,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="301">
+  <cellStyles count="317">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1071,6 +1156,14 @@
     <cellStyle name="Lien hypertexte" xfId="295" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="297" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="315" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1221,6 +1314,14 @@
     <cellStyle name="Lien hypertexte visité" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="298" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="316" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -1841,8 +1942,8 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1861,7 +1962,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1891,13 +1992,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1">
@@ -1935,7 +2036,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -1971,10 +2072,10 @@
         <v>23</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M3" s="4"/>
     </row>
@@ -2013,10 +2114,10 @@
         <v>13</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" customHeight="1">
@@ -2054,7 +2155,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="4"/>
     </row>
@@ -2261,10 +2362,10 @@
         <v>23</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11" s="4"/>
     </row>
@@ -2564,10 +2665,10 @@
         <v>1.52</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M20" s="4"/>
     </row>
@@ -2604,10 +2705,10 @@
         <v>34</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" customHeight="1">
@@ -2708,13 +2809,13 @@
         <v>1.52</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" customHeight="1">
@@ -2747,13 +2848,13 @@
         <v>1.52</v>
       </c>
       <c r="K25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="M25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" customHeight="1">
@@ -2900,7 +3001,7 @@
         <v>5675</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>21</v>
@@ -2926,21 +3027,40 @@
       <c r="K30" s="11"/>
       <c r="L30" s="6"/>
       <c r="M30" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" customHeight="1">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="B31" s="6">
+        <v>4979</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K31" s="11"/>
       <c r="L31" s="6"/>
       <c r="M31" s="4"/>
@@ -2949,14 +3069,33 @@
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="B32" s="6">
+        <v>4847</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="L32" s="6"/>
       <c r="M32" s="4"/>
     </row>
@@ -2964,14 +3103,33 @@
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="B33" s="6">
+        <v>4992</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="L33" s="6"/>
       <c r="M33" s="4"/>
     </row>
@@ -2979,14 +3137,33 @@
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="B34" s="6">
+        <v>4994</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="L34" s="6"/>
       <c r="M34" s="4"/>
     </row>
@@ -2994,14 +3171,33 @@
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="B35" s="6">
+        <v>4978</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="L35" s="6"/>
       <c r="M35" s="4"/>
     </row>
@@ -3009,14 +3205,36 @@
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="B36" s="6">
+        <v>5004</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="17">
+        <v>1.48</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="17">
+        <v>1.69</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="4"/>
     </row>
@@ -3024,14 +3242,33 @@
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="B37" s="6">
+        <v>5672</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="4"/>
     </row>

--- a/etc/ap242/patches.xlsx
+++ b/etc/ap242/patches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="60" windowWidth="27880" windowHeight="16860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="62">
   <si>
     <t>bug #</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>seems corrected</t>
   </si>
   <si>
     <t>not applied as no type machining_feature_definition not used in 442 lf</t>
@@ -482,9 +479,6 @@
 (* End of added FUNCTIONs. klt 2015-09-30 *)</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>FOR THE 3 LFs:
 &gt; replace mb3dgdt_additional_application_domain_enumeration by additional_application_domain_enumeration
 &gt; replace pmiwn3m_product_shape_type_enumeration by product_shape_type_enumeration
@@ -551,6 +545,66 @@
   turned_knurl);
 END_TYPE;
 </t>
+  </si>
+  <si>
+    <t>Bug 5690 - patch 409, 410, 442 MIM longform for incorrect multi_level_reference_designator</t>
+  </si>
+  <si>
+    <t>not_shtolo</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Explicitly the following rule shall be removed from the 409 schema:
+(* Implicit interfaced from: Ap242_managed_model_based_3d_engineering_mim *)
+  RULE ap242_application_protocol_definition_required FOR 
+      (application_context); 
+    WHERE 
+      WR1:  SIZEOF( QUERY( ac &lt;* application_context | 
+              (SIZEOF (QUERY (apd &lt;* 
+USEDIN(ac,'AP209_MULTIDISCIPLINARY_ANALYSIS_AND_DESIGN_MIM_LF.APPLICATION_PROTOCOL_DEFINITION.APPLICATION') 
+| 
+                apd.application_interpreted_model_schema_name = 
+'ap242_managed_model_based_3d_engineering' 
+                )) &gt; 0) 
+              )) &gt; 0;    
+  END_RULE; 
+Explicitly the following rule shall be removed from the 410 schema:
+(* Implicit interfaced from: Ap242_managed_model_based_3d_engineering_mim *)
+  RULE ap242_application_protocol_definition_required FOR 
+      (application_context); 
+    WHERE 
+      WR1:  SIZEOF( QUERY( ac &lt;* application_context | 
+              (SIZEOF (QUERY (apd &lt;* 
+USEDIN(ac,'AP210_ELECTRONIC_ASSEMBLY_INTERCONNECT_AND_PACKAGING_DESIGN_MIM_LF.APPLICATION_PROTOCOL_DEFINITION.APPLICATION') 
+| 
+                apd.application_interpreted_model_schema_name = 
+'ap242_managed_model_based_3d_engineering' 
+                )) &gt; 0) 
+              )) &gt; 0;    
+  END_RULE;</t>
+  </si>
+  <si>
+    <t>replace NTITY multi_level_reference_designator 
+by
+ENTITY multi_level_reference_designator
+    SUBTYPE OF ( assembly_component_usage );
+      location  : LIST [1 : ?] OF UNIQUE next_assembly_usage_occurrence;
+    DERIVE
+      SELF\product_definition_relationship.relating_product_definition : product_definition := location[1]\product_definition_relationship.relating_product_definition;
+      SELF\product_definition_relationship.related_product_definition  : product_definition_or_reference := location[HIINDEX(location)]\product_definition_relationship.related_product_definition;
+      leaf : product_definition_or_reference := related_product_definition;
+      root : product_definition := relating_product_definition;
+    UNIQUE
+      UR1: location;
+    WHERE
+      WR1: unambiguously_specified_multi_level_reference_designator(location);
+      WR2: SIZEOF( QUERY ( cp &lt;* location | NOT EXISTS(cp\assembly_component_usage.reference_designator ))) = 0;
+  END_ENTITY;</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -636,8 +690,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="317">
+  <cellStyleXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -998,14 +1060,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="317">
+  <cellStyles count="325">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1164,6 +1226,10 @@
     <cellStyle name="Lien hypertexte" xfId="311" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="313" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="323" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1322,6 +1388,10 @@
     <cellStyle name="Lien hypertexte visité" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="314" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="324" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -1341,7 +1411,7 @@
         <name val="Cambria"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1377,6 +1447,7 @@
         <name val="Cambria"/>
         <scheme val="major"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1394,7 +1465,7 @@
         <name val="Cambria"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1608,10 +1679,10 @@
     <tableColumn id="6" name="410 ARM lf" dataDxfId="6"/>
     <tableColumn id="7" name="410 MIM lf" dataDxfId="5"/>
     <tableColumn id="8" name="409 ARM lf" dataDxfId="4"/>
-    <tableColumn id="9" name="409 MIM lf" dataDxfId="3"/>
-    <tableColumn id="10" name="related correction to do" dataDxfId="2"/>
+    <tableColumn id="9" name="409 MIM lf" dataDxfId="2"/>
+    <tableColumn id="10" name="related correction to do" dataDxfId="0"/>
     <tableColumn id="11" name="communicated in bugzilla" dataDxfId="1"/>
-    <tableColumn id="13" name="comments" dataDxfId="0"/>
+    <tableColumn id="13" name="comments" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1942,8 +2013,8 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1954,7 +2025,7 @@
     <col min="4" max="4" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="5" customWidth="1"/>
     <col min="6" max="10" width="13.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="69.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="69.33203125" style="11" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="1"/>
     <col min="13" max="13" width="67.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
@@ -1962,7 +2033,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1991,14 +2062,14 @@
       <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>39</v>
+      <c r="K1" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1">
@@ -2036,7 +2107,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -2072,10 +2143,10 @@
         <v>23</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M3" s="4"/>
     </row>
@@ -2114,10 +2185,10 @@
         <v>13</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" customHeight="1">
@@ -2155,7 +2226,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M5" s="4"/>
     </row>
@@ -2204,7 +2275,7 @@
         <v>4619</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>20</v>
@@ -2227,7 +2298,6 @@
       <c r="J7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="11"/>
       <c r="L7" s="6"/>
       <c r="M7" s="4"/>
     </row>
@@ -2260,7 +2330,6 @@
       <c r="J8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="11"/>
       <c r="L8" s="6"/>
       <c r="M8" s="4"/>
     </row>
@@ -2293,7 +2362,6 @@
       <c r="J9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="11"/>
       <c r="L9" s="6"/>
       <c r="M9" s="4"/>
     </row>
@@ -2326,7 +2394,6 @@
       <c r="J10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="11"/>
       <c r="L10" s="6"/>
       <c r="M10" s="4"/>
     </row>
@@ -2338,7 +2405,7 @@
         <v>4904</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>19</v>
@@ -2362,10 +2429,10 @@
         <v>23</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M11" s="4"/>
     </row>
@@ -2411,7 +2478,7 @@
         <v>4988</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>20</v>
@@ -2436,7 +2503,7 @@
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" customHeight="1">
@@ -2448,7 +2515,7 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>23</v>
@@ -2459,15 +2526,22 @@
       <c r="G14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="14">
+        <v>1.7</v>
+      </c>
       <c r="I14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="J14" s="6">
+        <v>1.54</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="16" customHeight="1">
       <c r="A15" s="6">
@@ -2496,7 +2570,6 @@
       <c r="J15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="11"/>
       <c r="L15" s="6"/>
       <c r="M15" s="4"/>
     </row>
@@ -2531,7 +2604,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" customHeight="1">
@@ -2563,7 +2636,6 @@
       <c r="J17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="11"/>
       <c r="L17" s="6"/>
       <c r="M17" s="4"/>
     </row>
@@ -2598,7 +2670,7 @@
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" customHeight="1">
@@ -2632,7 +2704,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" customHeight="1">
@@ -2665,10 +2737,10 @@
         <v>1.52</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M20" s="4"/>
     </row>
@@ -2702,13 +2774,13 @@
         <v>1.52</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" customHeight="1">
@@ -2740,7 +2812,6 @@
       <c r="J22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="11"/>
       <c r="L22" s="6"/>
       <c r="M22" s="4"/>
     </row>
@@ -2774,7 +2845,7 @@
         <v>23</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="4"/>
@@ -2809,13 +2880,13 @@
         <v>1.52</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" customHeight="1">
@@ -2848,13 +2919,13 @@
         <v>1.52</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" customHeight="1">
@@ -2886,7 +2957,6 @@
       <c r="J26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="11"/>
       <c r="L26" s="6"/>
       <c r="M26" s="4"/>
     </row>
@@ -2919,7 +2989,6 @@
       <c r="J27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="11"/>
       <c r="L27" s="6"/>
       <c r="M27" s="4"/>
     </row>
@@ -2931,7 +3000,7 @@
         <v>5587</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>20</v>
@@ -2954,7 +3023,6 @@
       <c r="J28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="11"/>
       <c r="L28" s="6"/>
       <c r="M28" s="4"/>
     </row>
@@ -2966,7 +3034,7 @@
         <v>5588</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>20</v>
@@ -2989,7 +3057,6 @@
       <c r="J29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="11"/>
       <c r="L29" s="6"/>
       <c r="M29" s="4"/>
     </row>
@@ -3001,10 +3068,10 @@
         <v>5675</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>23</v>
@@ -3024,10 +3091,9 @@
       <c r="J30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="11"/>
       <c r="L30" s="6"/>
       <c r="M30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" customHeight="1">
@@ -3038,7 +3104,7 @@
         <v>4979</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>20</v>
@@ -3061,7 +3127,6 @@
       <c r="J31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="11"/>
       <c r="L31" s="6"/>
       <c r="M31" s="4"/>
     </row>
@@ -3073,7 +3138,7 @@
         <v>4847</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>20</v>
@@ -3107,7 +3172,7 @@
         <v>4992</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>20</v>
@@ -3141,7 +3206,7 @@
         <v>4994</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>20</v>
@@ -3175,7 +3240,7 @@
         <v>4978</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>20</v>
@@ -3209,33 +3274,35 @@
         <v>5004</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="17">
+      <c r="E36" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="16">
         <v>1.48</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="17">
+      <c r="G36" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="16">
         <v>1.69</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="16" t="s">
         <v>23</v>
       </c>
       <c r="J36" s="6">
         <v>1.53</v>
       </c>
-      <c r="K36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" s="6"/>
+      <c r="K36" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" ht="16" customHeight="1">
@@ -3246,7 +3313,7 @@
         <v>5672</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>20</v>
@@ -3276,14 +3343,36 @@
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="B38" s="6">
+        <v>5690</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="L38" s="6"/>
       <c r="M38" s="4"/>
     </row>

--- a/etc/ap242/patches.xlsx
+++ b/etc/ap242/patches.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Issue list" sheetId="1" r:id="rId1"/>
+    <sheet name="Documentation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -18,94 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Kevin Le Tutour</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Kevin Le Tutour:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Valid means the patch is valid and shall be applied as there is a real shotlo issue.
-Fixed-closed means no patch are needed as the error is not an SHTOLO error but a short form schema error which has been fixed.
-not_valid-pending means that the patch seems invalid but we need feedbacks from the persons which has create the issue in order to be sure.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Kevin Le Tutour:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This number is the last committed schema version on which the patch has been applied. 
-When equal to "x", it means the patch doesn't need to be applied to this specific schema (442 and/or 409 and/or 410 and/or ARM and/or MIM).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Kevin Le Tutour:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-patch application posted on bugzilla or not?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="85">
   <si>
     <t>bug #</t>
   </si>
@@ -155,9 +70,6 @@
     <t>Bug 5633 - patch 409, 410, 442 ARM longforms for Predefined_requirement_view_definition.requirement_basis</t>
   </si>
   <si>
-    <t>communicated in bugzilla</t>
-  </si>
-  <si>
     <t>&gt; Comment out 2 lines :
 -- requirement_basis : OPTIONAL SET[1:?] OF requirement_basis_select;
 -- WR5 : EXISTS(required_characteristic) XOR EXISTS(requirement_basis);</t>
@@ -194,9 +106,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>valid</t>
-  </si>
-  <si>
     <t>fixed-closed</t>
   </si>
   <si>
@@ -217,12 +126,6 @@
 &gt;&gt;&gt; FIXED ???
 #5053, (is this fix published? If so Keith shall mark the bug VERIFIED.)
 &gt;&gt;&gt; FIXED ??? same as above</t>
-  </si>
-  <si>
-    <t>CUR - feature_or_non_feature_usage falls empty in AP242 long from Express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move representation_proxy_item from AM Property_as_definition to AM Requirement_management </t>
   </si>
   <si>
     <t>Bug 4904 - patch 409 ARM longform errors</t>
@@ -266,13 +169,7 @@
     <t>comments</t>
   </si>
   <si>
-    <t>THIS IS AN EXTENSION ??</t>
-  </si>
-  <si>
     <t>(new edition of AIC 515 in preparation by Ray)</t>
-  </si>
-  <si>
-    <t>related correction to do</t>
   </si>
   <si>
     <t>commented out: described_element
@@ -586,7 +483,19 @@
   END_RULE;</t>
   </si>
   <si>
-    <t>replace NTITY multi_level_reference_designator 
+    <t>Bug 4667 - patch Multi_level_reference_designator in ARM longform</t>
+  </si>
+  <si>
+    <t>Bug 4668 - patch 442 MIM longform select representation_proxy_select</t>
+  </si>
+  <si>
+    <t>Bug 4820 - patch Assembly_module_component.access_mechanisms needed after shtolo</t>
+  </si>
+  <si>
+    <t>Bug 4992 - Patch 409, 410 mim longforms to add 209, 210 specific ap rule and remove ap242 specific ap rule</t>
+  </si>
+  <si>
+    <t>replace ENTITY multi_level_reference_designator 
 by
 ENTITY multi_level_reference_designator
     SUBTYPE OF ( assembly_component_usage );
@@ -604,14 +513,89 @@
   END_ENTITY;</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Bug 5602 - Remove Foundation_state_definition from AP209</t>
+  </si>
+  <si>
+    <t>Bug 5018 - Function stripped_typeof needs to distinguish simple data types</t>
+  </si>
+  <si>
+    <t>Bug 5019 - Maths_value WHERE-rule: invalid parameter</t>
+  </si>
+  <si>
+    <t>Bug 5023 - Entity mesh_derived_math_space shall be a tuple_space</t>
+  </si>
+  <si>
+    <t>Bug 5048 - P110 only handles one-dimensional components of 3-dimensional properties</t>
+  </si>
+  <si>
+    <t>Bug 5051 - SMRLV6 Collector bug for patches to ARM, MIM Longforms</t>
+  </si>
+  <si>
+    <t>Bug 5052 - Type mismatch in call of make_extended_tuple_space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug 5054 - Update function is_coordinate_property for BZ#5048 </t>
+  </si>
+  <si>
+    <t>Bug 5057 - patch 409, 410, 442 MIM longform for missing csg primitives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug 5539 - patch 409, 410, 442 MIM longforms for make_array_of_array </t>
+  </si>
+  <si>
+    <t>Bug 5520 - FUNCTION list_to_array: bug in code</t>
+  </si>
+  <si>
+    <t>Bug 5587 - UCUR - feature_or_non_feature_usage falls empty in AP242 long from Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug 5588 - Move representation_proxy_item from AM Property_as_definition to AM Requirement_management </t>
+  </si>
+  <si>
+    <t>Concret related manual correction to make to the EXPRESS lf schema</t>
+  </si>
+  <si>
+    <t>This is an extension ?</t>
+  </si>
+  <si>
+    <t>valid-not_shtolo</t>
+  </si>
+  <si>
+    <t>valid-shtolo_issue</t>
+  </si>
+  <si>
+    <t>valid-shtolo_issue means the patch is valid and shall be applied as there is a real shotlo issue.</t>
+  </si>
+  <si>
+    <t>Fixed-closed means no patch are needed as the error is not an shtolo error but a short form schema error which has been fixed.</t>
+  </si>
+  <si>
+    <t>not_valid-pending means that the patch seems invalid but we need feedbacks from the persons which has create the issue in order to be sure.</t>
+  </si>
+  <si>
+    <t>valid-not_shtolo means the patch shall be applied but the issue comes from something else than shtolo, eg no time to correct the short form schema</t>
+  </si>
+  <si>
+    <t>STEPmod CVS's Long Form schemas version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This number is the last committed schema version on which the patch has been applied. </t>
+  </si>
+  <si>
+    <t>When equal to "x", it means the patch doesn't need to be applied to this specific schema (442 and/or 409 and/or 410 and/or ARM and/or MIM).</t>
+  </si>
+  <si>
+    <t>Columns and content definition</t>
+  </si>
+  <si>
+    <t>communicated in bugzilla?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -649,22 +633,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -690,7 +668,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="325">
+  <cellStyleXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1016,8 +994,126 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1057,17 +1153,18 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="325">
+  <cellStyles count="443">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1230,6 +1327,65 @@
     <cellStyle name="Lien hypertexte" xfId="319" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="321" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="441" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1392,9 +1548,104 @@
     <cellStyle name="Lien hypertexte visité" xfId="320" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="322" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="442" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1430,42 +1681,6 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1679,10 +1894,10 @@
     <tableColumn id="6" name="410 ARM lf" dataDxfId="6"/>
     <tableColumn id="7" name="410 MIM lf" dataDxfId="5"/>
     <tableColumn id="8" name="409 ARM lf" dataDxfId="4"/>
-    <tableColumn id="9" name="409 MIM lf" dataDxfId="2"/>
-    <tableColumn id="10" name="related correction to do" dataDxfId="0"/>
-    <tableColumn id="11" name="communicated in bugzilla" dataDxfId="1"/>
-    <tableColumn id="13" name="comments" dataDxfId="3"/>
+    <tableColumn id="9" name="409 MIM lf" dataDxfId="3"/>
+    <tableColumn id="10" name="Concret related manual correction to make to the EXPRESS lf schema" dataDxfId="2"/>
+    <tableColumn id="11" name="communicated in bugzilla?" dataDxfId="1"/>
+    <tableColumn id="13" name="comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2009,12 +2224,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2026,14 +2241,14 @@
     <col min="5" max="5" width="13.5" style="5" customWidth="1"/>
     <col min="6" max="10" width="13.5" style="4" customWidth="1"/>
     <col min="11" max="11" width="69.33203125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="29.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="67.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2042,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -2063,13 +2278,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1">
@@ -2083,31 +2298,31 @@
         <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E2" s="14">
         <v>1.4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="6">
         <v>1.67</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="6">
         <v>1.33</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -2122,31 +2337,31 @@
         <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E3" s="14">
         <v>1.4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="6">
         <v>1.67</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="6">
         <v>1.33</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M3" s="4"/>
     </row>
@@ -2161,34 +2376,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E4" s="14">
         <v>1.4</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="6">
         <v>1.33</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" customHeight="1">
@@ -2199,34 +2414,34 @@
         <v>4665</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6">
         <v>1.47</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="6">
         <v>1.68</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="14">
         <v>1.52</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M5" s="4"/>
     </row>
@@ -2238,31 +2453,31 @@
         <v>5056</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="6">
         <v>1.47</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="6">
         <v>1.68</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="14">
         <v>1.52</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="4"/>
@@ -2275,28 +2490,28 @@
         <v>4619</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="4"/>
@@ -2308,27 +2523,29 @@
       <c r="B8" s="6">
         <v>4667</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="D8" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="4"/>
@@ -2340,27 +2557,29 @@
       <c r="B9" s="6">
         <v>4668</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="4"/>
@@ -2372,27 +2591,29 @@
       <c r="B10" s="6">
         <v>4820</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="4"/>
@@ -2405,34 +2626,34 @@
         <v>4904</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="6">
         <v>1.33</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M11" s="4"/>
     </row>
@@ -2443,31 +2664,33 @@
       <c r="B12" s="6">
         <v>4978</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" customHeight="1">
@@ -2478,32 +2701,32 @@
         <v>4988</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" customHeight="1">
@@ -2513,33 +2736,35 @@
       <c r="B14" s="6">
         <v>4992</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="D14" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="14">
         <v>1.7</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" s="6">
         <v>1.54</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M14" s="12"/>
     </row>
@@ -2550,25 +2775,29 @@
       <c r="B15" s="6">
         <v>4994</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="D15" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="4"/>
@@ -2580,31 +2809,33 @@
       <c r="B16" s="6">
         <v>5004</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D16" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" customHeight="1">
@@ -2614,27 +2845,29 @@
       <c r="B17" s="6">
         <v>5602</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="D17" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="4"/>
@@ -2646,31 +2879,33 @@
       <c r="B18" s="6">
         <v>5018</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="D18" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" customHeight="1">
@@ -2680,31 +2915,33 @@
       <c r="B19" s="6">
         <v>5019</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D19" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" customHeight="1">
@@ -2714,33 +2951,35 @@
       <c r="B20" s="6">
         <v>5023</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="D20" s="9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J20" s="14">
         <v>1.52</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M20" s="4"/>
     </row>
@@ -2751,36 +2990,38 @@
       <c r="B21" s="6">
         <v>5048</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="D21" s="9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J21" s="14">
         <v>1.52</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" customHeight="1">
@@ -2790,27 +3031,29 @@
       <c r="B22" s="6">
         <v>5051</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="D22" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="4"/>
@@ -2822,30 +3065,32 @@
       <c r="B23" s="6">
         <v>5052</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="D23" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="4"/>
@@ -2857,36 +3102,38 @@
       <c r="B24" s="6">
         <v>5054</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="D24" s="9" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J24" s="14">
         <v>1.52</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" customHeight="1">
@@ -2896,36 +3143,38 @@
       <c r="B25" s="6">
         <v>5057</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="D25" s="9" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="6">
         <v>1.47</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H25" s="6">
         <v>1.66</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J25" s="14">
         <v>1.52</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" customHeight="1">
@@ -2935,27 +3184,29 @@
       <c r="B26" s="6">
         <v>5539</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="D26" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="4"/>
@@ -2967,27 +3218,29 @@
       <c r="B27" s="6">
         <v>5520</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="D27" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="4"/>
@@ -3000,28 +3253,28 @@
         <v>5587</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="4"/>
@@ -3034,28 +3287,28 @@
         <v>5588</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="4"/>
@@ -3068,32 +3321,32 @@
         <v>5675</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" customHeight="1">
@@ -3104,28 +3357,28 @@
         <v>4979</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="4"/>
@@ -3138,28 +3391,28 @@
         <v>4847</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="4"/>
@@ -3172,28 +3425,28 @@
         <v>4992</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="4"/>
@@ -3206,28 +3459,28 @@
         <v>4994</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="4"/>
@@ -3240,28 +3493,28 @@
         <v>4978</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="4"/>
@@ -3274,34 +3527,34 @@
         <v>5004</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F36" s="16">
         <v>1.48</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H36" s="16">
         <v>1.69</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J36" s="6">
         <v>1.53</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M36" s="4"/>
     </row>
@@ -3313,28 +3566,28 @@
         <v>5672</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="4"/>
@@ -3347,39 +3600,38 @@
         <v>5690</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F38" s="6">
         <v>1.49</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H38" s="6">
         <v>1.71</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J38" s="6">
         <v>1.55</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L38" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" ht="16" customHeight="1">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="6"/>
@@ -3394,9 +3646,8 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3404,4 +3655,107 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/etc/ap242/patches.xlsx
+++ b/etc/ap242/patches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Issue list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="85">
   <si>
     <t>bug #</t>
   </si>
@@ -119,13 +119,6 @@
   </si>
   <si>
     <t>not applied as no type machining_feature_definition not used in 442 lf</t>
-  </si>
-  <si>
-    <t>is this still required? If not CR team should get Keith to mark the bug VERIFIED.)$
-&gt; ENTITY extended_tuple_space
-&gt;&gt;&gt; FIXED ???
-#5053, (is this fix published? If so Keith shall mark the bug VERIFIED.)
-&gt;&gt;&gt; FIXED ??? same as above</t>
   </si>
   <si>
     <t>Bug 4904 - patch 409 ARM longform errors</t>
@@ -590,6 +583,13 @@
   <si>
     <t>communicated in bugzilla?</t>
   </si>
+  <si>
+    <t>is this still required? If not CR team should get Keith to mark the bug VERIFIED.)
+&gt; ENTITY extended_tuple_space
+&gt;&gt;&gt; FIXED ???
+#5053, (is this fix published? If so Keith shall mark the bug VERIFIED.)
+&gt;&gt;&gt; FIXED ??? same as above</t>
+  </si>
 </sst>
 </file>
 
@@ -668,8 +668,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="443">
+  <cellStyleXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1164,7 +1168,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="443">
+  <cellStyles count="447">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1386,6 +1390,8 @@
     <cellStyle name="Lien hypertexte" xfId="437" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="439" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="445" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1607,6 +1613,8 @@
     <cellStyle name="Lien hypertexte visité" xfId="438" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="440" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -1883,7 +1891,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M39"/>
+  <autoFilter ref="A1:M39">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="valid-not_shtolo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" name="patch id" dataDxfId="12"/>
     <tableColumn id="2" name="bug #" dataDxfId="11"/>
@@ -2227,9 +2241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2248,7 +2262,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2278,16 +2292,16 @@
         <v>7</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2298,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="14">
         <v>1.4</v>
@@ -2322,11 +2336,11 @@
         <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="16" customHeight="1">
+    <row r="3" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2337,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="14">
         <v>1.4</v>
@@ -2358,14 +2372,14 @@
         <v>21</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="16" customHeight="1">
+    <row r="4" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2376,7 +2390,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="14">
         <v>1.4</v>
@@ -2400,13 +2414,13 @@
         <v>12</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2417,7 +2431,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>21</v>
@@ -2441,11 +2455,11 @@
         <v>13</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="16" customHeight="1">
+    <row r="6" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2456,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>21</v>
@@ -2482,7 +2496,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="16" customHeight="1">
+    <row r="7" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2490,7 +2504,7 @@
         <v>4619</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>18</v>
@@ -2516,7 +2530,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="16" customHeight="1">
+    <row r="8" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2524,7 +2538,7 @@
         <v>4667</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>18</v>
@@ -2550,7 +2564,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="16" customHeight="1">
+    <row r="9" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2558,7 +2572,7 @@
         <v>4668</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>18</v>
@@ -2584,7 +2598,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="16" customHeight="1">
+    <row r="10" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2592,7 +2606,7 @@
         <v>4820</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>19</v>
@@ -2618,7 +2632,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17" hidden="1" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2626,10 +2640,10 @@
         <v>4904</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>21</v>
@@ -2650,14 +2664,14 @@
         <v>21</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="16" customHeight="1">
+    <row r="12" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2665,7 +2679,7 @@
         <v>4978</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>19</v>
@@ -2693,7 +2707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" customHeight="1">
+    <row r="13" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2701,7 +2715,7 @@
         <v>4988</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>18</v>
@@ -2726,10 +2740,10 @@
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2737,10 +2751,10 @@
         <v>4992</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>21</v>
@@ -2761,14 +2775,14 @@
         <v>1.54</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="16" customHeight="1">
+    <row r="15" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2776,7 +2790,7 @@
         <v>4994</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -2802,7 +2816,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="16" customHeight="1">
+    <row r="16" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2810,7 +2824,7 @@
         <v>5004</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
@@ -2838,7 +2852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" customHeight="1">
+    <row r="17" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2846,7 +2860,7 @@
         <v>5602</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>18</v>
@@ -2872,7 +2886,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="16" customHeight="1">
+    <row r="18" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2880,7 +2894,7 @@
         <v>5018</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>18</v>
@@ -2905,10 +2919,10 @@
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2916,7 +2930,7 @@
         <v>5019</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
@@ -2941,10 +2955,10 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2952,10 +2966,10 @@
         <v>5023</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>21</v>
@@ -2976,14 +2990,14 @@
         <v>1.52</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" ht="16" customHeight="1">
+    <row r="21" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2991,10 +3005,10 @@
         <v>5048</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>21</v>
@@ -3015,16 +3029,16 @@
         <v>1.52</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3032,7 +3046,7 @@
         <v>5051</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>19</v>
@@ -3058,7 +3072,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" ht="16" customHeight="1">
+    <row r="23" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -3066,10 +3080,10 @@
         <v>5052</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>21</v>
@@ -3086,11 +3100,11 @@
       <c r="I23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>21</v>
+      <c r="J23" s="6">
+        <v>1.55</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="4"/>
@@ -3103,10 +3117,10 @@
         <v>5054</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>21</v>
@@ -3127,13 +3141,13 @@
         <v>1.52</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" customHeight="1">
@@ -3144,10 +3158,10 @@
         <v>5057</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>21</v>
@@ -3168,16 +3182,16 @@
         <v>1.52</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="16" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -3185,7 +3199,7 @@
         <v>5539</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>18</v>
@@ -3211,7 +3225,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" ht="16" customHeight="1">
+    <row r="27" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -3219,7 +3233,7 @@
         <v>5520</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>18</v>
@@ -3245,7 +3259,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" ht="16" customHeight="1">
+    <row r="28" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -3253,7 +3267,7 @@
         <v>5587</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>18</v>
@@ -3279,7 +3293,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" ht="16" customHeight="1">
+    <row r="29" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -3287,7 +3301,7 @@
         <v>5588</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>18</v>
@@ -3313,7 +3327,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" ht="16" customHeight="1">
+    <row r="30" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -3321,10 +3335,10 @@
         <v>5675</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>21</v>
@@ -3346,10 +3360,10 @@
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="16" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -3357,7 +3371,7 @@
         <v>4979</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>18</v>
@@ -3383,7 +3397,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" ht="16" customHeight="1">
+    <row r="32" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -3391,7 +3405,7 @@
         <v>4847</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>18</v>
@@ -3417,7 +3431,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" ht="16" customHeight="1">
+    <row r="33" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -3425,7 +3439,7 @@
         <v>4992</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>18</v>
@@ -3451,7 +3465,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" ht="16" customHeight="1">
+    <row r="34" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -3459,7 +3473,7 @@
         <v>4994</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>18</v>
@@ -3485,7 +3499,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" ht="16" customHeight="1">
+    <row r="35" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -3493,7 +3507,7 @@
         <v>4978</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>18</v>
@@ -3519,7 +3533,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" ht="16" customHeight="1">
+    <row r="36" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -3527,10 +3541,10 @@
         <v>5004</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>21</v>
@@ -3551,14 +3565,14 @@
         <v>1.53</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" ht="16" customHeight="1">
+    <row r="37" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -3566,7 +3580,7 @@
         <v>5672</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
@@ -3592,7 +3606,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" ht="16" customHeight="1">
+    <row r="38" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -3600,10 +3614,10 @@
         <v>5690</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>21</v>
@@ -3624,14 +3638,14 @@
         <v>1.55</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" ht="16" customHeight="1">
+    <row r="39" spans="1:13" ht="16" hidden="1" customHeight="1">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="6"/>
@@ -3661,20 +3675,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3684,10 +3698,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3695,7 +3709,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3703,15 +3717,15 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3736,17 +3750,17 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/etc/ap242/patches.xlsx
+++ b/etc/ap242/patches.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Issue list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="86">
   <si>
     <t>bug #</t>
   </si>
@@ -590,6 +590,9 @@
 #5053, (is this fix published? If so Keith shall mark the bug VERIFIED.)
 &gt;&gt;&gt; FIXED ??? same as above</t>
   </si>
+  <si>
+    <t>Bug 5706</t>
+  </si>
 </sst>
 </file>
 
@@ -668,8 +671,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="447">
+  <cellStyleXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1168,7 +1175,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="447">
+  <cellStyles count="451">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1392,6 +1399,8 @@
     <cellStyle name="Lien hypertexte" xfId="441" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="443" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="449" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1615,6 +1624,8 @@
     <cellStyle name="Lien hypertexte visité" xfId="442" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="444" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="450" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -1891,13 +1902,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M39">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="valid-not_shtolo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M39"/>
   <tableColumns count="13">
     <tableColumn id="1" name="patch id" dataDxfId="12"/>
     <tableColumn id="2" name="bug #" dataDxfId="11"/>
@@ -2242,8 +2247,8 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24:C25"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2301,7 +2306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="2" spans="1:13" ht="16" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2340,7 +2345,7 @@
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="3" spans="1:13" ht="16" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2379,7 +2384,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="4" spans="1:13" ht="16" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="5" spans="1:13" ht="16" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2459,7 +2464,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="6" spans="1:13" ht="16" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2496,7 +2501,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="7" spans="1:13" ht="16" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2530,7 +2535,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="8" spans="1:13" ht="16" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2564,7 +2569,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="9" spans="1:13" ht="16" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2598,7 +2603,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="10" spans="1:13" ht="16" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2632,7 +2637,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="17" hidden="1" customHeight="1">
+    <row r="11" spans="1:13" ht="17" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2671,7 +2676,7 @@
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="12" spans="1:13" ht="16" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2707,7 +2712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="13" spans="1:13" ht="16" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2743,7 +2748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="14" spans="1:13" ht="16" customHeight="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2782,7 +2787,7 @@
       </c>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="15" spans="1:13" ht="16" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2816,7 +2821,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="16" spans="1:13" ht="16" customHeight="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2852,7 +2857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="17" spans="1:13" ht="16" customHeight="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2886,7 +2891,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="18" spans="1:13" ht="16" customHeight="1">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2922,7 +2927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="19" spans="1:13" ht="16" customHeight="1">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="20" spans="1:13" ht="16" customHeight="1">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2997,7 +3002,7 @@
       </c>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="21" spans="1:13" ht="16" customHeight="1">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3038,7 +3043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="22" spans="1:13" ht="16" customHeight="1">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3072,7 +3077,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="23" spans="1:13" ht="16" customHeight="1">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -3191,7 +3196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="26" spans="1:13" ht="16" customHeight="1">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -3225,7 +3230,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="27" spans="1:13" ht="16" customHeight="1">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -3259,7 +3264,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="28" spans="1:13" ht="16" customHeight="1">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -3293,7 +3298,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="29" spans="1:13" ht="16" customHeight="1">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -3327,7 +3332,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="30" spans="1:13" ht="16" customHeight="1">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -3363,7 +3368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="31" spans="1:13" ht="16" customHeight="1">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -3397,7 +3402,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="32" spans="1:13" ht="16" customHeight="1">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -3431,7 +3436,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="33" spans="1:13" ht="16" customHeight="1">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -3465,7 +3470,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="34" spans="1:13" ht="16" customHeight="1">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -3499,7 +3504,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="35" spans="1:13" ht="16" customHeight="1">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -3533,7 +3538,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="36" spans="1:13" ht="16" customHeight="1">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -3572,7 +3577,7 @@
       </c>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="37" spans="1:13" ht="16" customHeight="1">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -3606,7 +3611,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" ht="16" hidden="1" customHeight="1">
+    <row r="38" spans="1:13" ht="16" customHeight="1">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -3645,15 +3650,37 @@
       </c>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" ht="16" hidden="1" customHeight="1">
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+    <row r="39" spans="1:13" ht="16" customHeight="1">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <v>5706</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1.37</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L39" s="6"/>
       <c r="M39" s="4"/>
     </row>

--- a/etc/ap242/patches.xlsx
+++ b/etc/ap242/patches.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klt/Projets/EclipseWS2/stepmod/etc/ap242/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Issue list" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="88">
   <si>
     <t>bug #</t>
   </si>
@@ -593,6 +598,17 @@
   <si>
     <t>Bug 5706</t>
   </si>
+  <si>
+    <t>Bug 5493 - Extend data_environment for dimensional_characteristic_representation and others</t>
+  </si>
+  <si>
+    <t>change data_environment.elements as :
+ENTITY data_environment;
+  name : label;
+  description : text;
+  elements : SET [1:?] OF property_definition_representation;
+END_ENTITY;</t>
+  </si>
 </sst>
 </file>
 
@@ -1176,456 +1192,456 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="451">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="407" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="409" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="411" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="413" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="415" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="417" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="419" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="421" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="423" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="425" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="427" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="429" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="431" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="433" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="435" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="437" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="439" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="441" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="443" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="445" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="447" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="449" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -1897,12 +1913,17 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M40" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M40"/>
   <tableColumns count="13">
     <tableColumn id="1" name="patch id" dataDxfId="12"/>
     <tableColumn id="2" name="bug #" dataDxfId="11"/>
@@ -2244,19 +2265,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="11" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="5" customWidth="1"/>
     <col min="6" max="10" width="13.5" style="4" customWidth="1"/>
     <col min="11" max="11" width="69.33203125" style="11" customWidth="1"/>
@@ -2265,7 +2286,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -2306,7 +2327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" customHeight="1">
+    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2345,7 +2366,7 @@
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="16" customHeight="1">
+    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2384,7 +2405,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="16" customHeight="1">
+    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2425,7 +2446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" customHeight="1">
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2464,7 +2485,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="16" customHeight="1">
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2501,7 +2522,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="16" customHeight="1">
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2535,7 +2556,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="16" customHeight="1">
+    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2569,7 +2590,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="16" customHeight="1">
+    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2603,7 +2624,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="16" customHeight="1">
+    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2637,7 +2658,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1">
+    <row r="11" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2676,7 +2697,7 @@
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="16" customHeight="1">
+    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2712,7 +2733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" customHeight="1">
+    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2748,7 +2769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" customHeight="1">
+    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2787,7 +2808,7 @@
       </c>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="16" customHeight="1">
+    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2821,7 +2842,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="16" customHeight="1">
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2857,7 +2878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" customHeight="1">
+    <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2891,7 +2912,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="16" customHeight="1">
+    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2927,7 +2948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" customHeight="1">
+    <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2963,7 +2984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" customHeight="1">
+    <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3002,7 +3023,7 @@
       </c>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" ht="16" customHeight="1">
+    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3043,7 +3064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" customHeight="1">
+    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3077,7 +3098,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" ht="16" customHeight="1">
+    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -3114,7 +3135,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" ht="16" customHeight="1">
+    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -3155,7 +3176,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" customHeight="1">
+    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -3196,7 +3217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" customHeight="1">
+    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -3230,7 +3251,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" ht="16" customHeight="1">
+    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -3264,7 +3285,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" ht="16" customHeight="1">
+    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -3298,7 +3319,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" ht="16" customHeight="1">
+    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -3332,7 +3353,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" ht="16" customHeight="1">
+    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -3368,7 +3389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" customHeight="1">
+    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -3402,7 +3423,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" ht="16" customHeight="1">
+    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -3436,7 +3457,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" ht="16" customHeight="1">
+    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -3470,7 +3491,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" ht="16" customHeight="1">
+    <row r="34" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -3504,7 +3525,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" ht="16" customHeight="1">
+    <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -3538,7 +3559,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" ht="16" customHeight="1">
+    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -3577,7 +3598,7 @@
       </c>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" ht="16" customHeight="1">
+    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -3611,7 +3632,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" ht="16" customHeight="1">
+    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -3650,7 +3671,7 @@
       </c>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" ht="16" customHeight="1">
+    <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -3683,6 +3704,43 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6">
+        <v>5493</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1.58</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3690,11 +3748,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3706,24 +3759,24 @@
       <selection activeCell="D6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>74</v>
       </c>
@@ -3731,7 +3784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
@@ -3739,7 +3792,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
@@ -3747,7 +3800,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>73</v>
       </c>
@@ -3755,7 +3808,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -3775,17 +3828,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>81</v>
       </c>
@@ -3793,10 +3846,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>